--- a/03.COMP 513 - Computational Mathematics and Models I/03.COMP_513_Assignment_3_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/03.COMP_513_Assignment_3_ex2007.xlsx
@@ -875,17 +875,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U185"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -2060,7 +2060,7 @@
       <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2">
@@ -2075,7 +2075,7 @@
       <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="2">
@@ -2090,7 +2090,7 @@
       <c r="M8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="2">
@@ -2103,7 +2103,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="2">
         <v>0</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="2">
         <v>5</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="18"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="2">
         <v>5</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="C24" s="16">
         <v>-2</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="2">
@@ -2283,7 +2283,7 @@
       <c r="H24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="17" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="2">
@@ -2298,7 +2298,7 @@
       <c r="M24" s="16">
         <v>0</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="2">
@@ -2310,7 +2310,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="2">
         <v>1</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="2">
         <v>-4</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="18"/>
+      <c r="N25" s="17"/>
       <c r="O25" s="2">
         <v>-4</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="C42" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2">
@@ -2492,7 +2492,7 @@
       <c r="H42" s="16">
         <v>0</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="17" t="s">
         <v>24</v>
       </c>
       <c r="J42" s="7" t="s">
@@ -2507,7 +2507,7 @@
       <c r="M42" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="17" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="7" t="s">
@@ -2520,7 +2520,7 @@
     <row r="43" spans="1:21">
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="18"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="7" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="7" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="18"/>
+      <c r="N43" s="17"/>
       <c r="O43" s="2">
         <v>-1</v>
       </c>
@@ -2601,15 +2601,15 @@
       <c r="A51" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="16" t="s">
@@ -2796,10 +2796,10 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="2">
         <v>-4</v>
       </c>
@@ -2814,8 +2814,8 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="2">
         <v>12</v>
       </c>
@@ -2830,8 +2830,8 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="2">
         <v>0</v>
       </c>
@@ -2846,8 +2846,8 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="2">
         <v>0</v>
       </c>
@@ -2878,11 +2878,11 @@
       </c>
     </row>
     <row r="69" spans="2:8" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="18" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="10">
@@ -2899,9 +2899,9 @@
       </c>
     </row>
     <row r="70" spans="2:8" s="10" customFormat="1">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="10">
         <v>0</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="D73" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="10">
@@ -2950,7 +2950,7 @@
     </row>
     <row r="74" spans="2:8" s="10" customFormat="1">
       <c r="D74" s="16"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="10">
         <v>0</v>
       </c>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="75" spans="2:8" s="10" customFormat="1">
       <c r="D75" s="16"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="10">
         <v>4</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="D77" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>53</v>
       </c>
       <c r="F77" s="10">
@@ -2994,7 +2994,7 @@
     </row>
     <row r="78" spans="2:8" s="10" customFormat="1">
       <c r="D78" s="16"/>
-      <c r="E78" s="18"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="10">
         <v>0</v>
       </c>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="79" spans="2:8" s="10" customFormat="1">
       <c r="D79" s="16"/>
-      <c r="E79" s="18"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="10">
         <v>2</v>
       </c>
@@ -3022,10 +3022,10 @@
       <c r="C80" s="9"/>
     </row>
     <row r="81" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="16" t="s">
         <v>1</v>
       </c>
@@ -3041,8 +3041,8 @@
       </c>
     </row>
     <row r="82" spans="2:11" s="10" customFormat="1">
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="16"/>
       <c r="E82" s="11" t="s">
         <v>54</v>
@@ -3058,8 +3058,8 @@
       </c>
     </row>
     <row r="83" spans="2:11" s="10" customFormat="1">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="16"/>
       <c r="E83" s="11"/>
       <c r="F83" s="10">
@@ -3080,10 +3080,10 @@
       <c r="D85" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="10">
         <v>-2</v>
       </c>
@@ -3094,8 +3094,8 @@
     <row r="86" spans="2:11" s="10" customFormat="1">
       <c r="C86" s="9"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="17"/>
       <c r="G86" s="10">
         <v>10</v>
       </c>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="100" spans="3:10" s="14" customFormat="1">
       <c r="D100" s="16"/>
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F100" s="18"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="14">
         <v>0</v>
       </c>
@@ -3251,8 +3251,8 @@
     </row>
     <row r="101" spans="3:10" s="14" customFormat="1">
       <c r="D101" s="16"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="17"/>
       <c r="G101" s="14">
         <v>0</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="D112" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F112" s="14">
@@ -3395,7 +3395,7 @@
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1">
       <c r="D113" s="16"/>
-      <c r="E113" s="18"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="14">
         <v>10</v>
       </c>
@@ -3489,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="E124" s="14"/>
-      <c r="F124" s="17" t="s">
+      <c r="F124" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G124" s="18"/>
+      <c r="G124" s="17"/>
       <c r="H124" s="14">
         <v>-4</v>
       </c>
@@ -3517,8 +3517,8 @@
       <c r="E125" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="17"/>
       <c r="H125" s="14">
         <v>-2</v>
       </c>
@@ -3541,8 +3541,8 @@
         <v>-4</v>
       </c>
       <c r="E126" s="14"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="17"/>
       <c r="H126" s="14">
         <v>6</v>
       </c>
@@ -3556,10 +3556,10 @@
     <row r="128" spans="1:14" ht="18.75" customHeight="1">
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
-      <c r="F128" s="17" t="s">
+      <c r="F128" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G128" s="18"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="14">
         <v>-4</v>
       </c>
@@ -3575,8 +3575,8 @@
       <c r="E129" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F129" s="17"/>
-      <c r="G129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="17"/>
       <c r="H129" s="14">
         <v>-2</v>
       </c>
@@ -3590,8 +3590,8 @@
     <row r="130" spans="1:14">
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="17"/>
       <c r="H130" s="14">
         <v>-10</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="E132" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="17">
         <v>1</v>
       </c>
       <c r="G132" s="14">
@@ -3622,7 +3622,7 @@
     <row r="133" spans="1:14">
       <c r="D133" s="14"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="18"/>
+      <c r="F133" s="17"/>
       <c r="G133" s="14">
         <v>-10</v>
       </c>
@@ -3637,10 +3637,10 @@
       <c r="E135" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F135" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G135" s="20"/>
+      <c r="G135" s="19"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="16"/>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="18"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="3">
         <v>0</v>
       </c>
@@ -3784,8 +3784,8 @@
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="16"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="17"/>
       <c r="E147" s="3">
         <v>0</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="B158" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D158" s="3">
@@ -3925,7 +3925,7 @@
     </row>
     <row r="159" spans="2:8">
       <c r="B159" s="16"/>
-      <c r="C159" s="18"/>
+      <c r="C159" s="17"/>
       <c r="D159" s="3">
         <v>10</v>
       </c>
@@ -3997,10 +3997,10 @@
       </c>
     </row>
     <row r="170" spans="1:14" ht="20.25" customHeight="1">
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D170" s="18"/>
+      <c r="D170" s="17"/>
       <c r="E170" s="3">
         <v>-1</v>
       </c>
@@ -4015,8 +4015,8 @@
       <c r="B171" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="17"/>
       <c r="E171" s="3">
         <v>0</v>
       </c>
@@ -4028,8 +4028,8 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="C172" s="17"/>
-      <c r="D172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="17"/>
       <c r="E172" s="3">
         <v>5</v>
       </c>
@@ -4045,10 +4045,10 @@
       <c r="D173" s="9"/>
     </row>
     <row r="174" spans="1:14">
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D174" s="18"/>
+      <c r="D174" s="17"/>
       <c r="E174" s="3">
         <v>-1</v>
       </c>
@@ -4063,8 +4063,8 @@
       <c r="B175" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="18"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="17"/>
       <c r="E175" s="3">
         <v>0</v>
       </c>
@@ -4076,8 +4076,8 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="C176" s="17"/>
-      <c r="D176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="17"/>
       <c r="E176" s="3">
         <v>0</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="B178" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D178" s="3">
@@ -4104,7 +4104,7 @@
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="16"/>
-      <c r="C179" s="18"/>
+      <c r="C179" s="17"/>
       <c r="D179" s="3">
         <v>2</v>
       </c>
@@ -4145,32 +4145,42 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:I120"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="E100:F101"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:F110"/>
-    <mergeCell ref="C174:D176"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C170:D172"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="C154:D156"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:F86"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="F128:G130"/>
     <mergeCell ref="F124:G126"/>
     <mergeCell ref="Q8:Q9"/>
@@ -4187,42 +4197,32 @@
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="M42:M43"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:F86"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C170:D172"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="C154:D156"/>
+    <mergeCell ref="C174:D176"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="E100:F101"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:F110"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:I120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
